--- a/日報/N01_ミスロス件数調査/【仕様】ミスロス検知設計.xlsx
+++ b/日報/N01_ミスロス件数調査/【仕様】ミスロス検知設計.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\日報\n0001_ミスロス件数調査\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ\シモダ\Github\日報\N01_ミスロス件数調査\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B12D3344-F991-4165-A5BF-567879821816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C1C481-890C-485C-A42D-BEA9D8A49AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="1830" windowWidth="21600" windowHeight="14670" xr2:uid="{577528EE-2EDF-469E-B53C-CAA0992B7C5E}"/>
+    <workbookView xWindow="19240" yWindow="170" windowWidth="19200" windowHeight="20900" xr2:uid="{577528EE-2EDF-469E-B53C-CAA0992B7C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="各項目リスト" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
   <si>
     <t>日付</t>
   </si>
@@ -251,6 +251,17 @@
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H内容</t>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hミス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -273,7 +284,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +339,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -352,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,6 +398,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,14 +744,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5526B07A-7D10-48CE-AA2F-EC85AEDFD80D}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="16" max="16" width="11.35546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -751,7 +774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -786,7 +809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -821,7 +844,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -856,7 +879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
@@ -891,7 +914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -926,7 +949,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -961,7 +984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -996,7 +1019,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
@@ -1031,7 +1054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1097,8 +1120,11 @@
       <c r="N12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1129,8 +1155,11 @@
       <c r="N13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1162,7 +1191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1194,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1246,7 +1275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1280,7 +1309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1296,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1304,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
@@ -1326,7 +1355,7 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
